--- a/test_inventory_report.xlsx
+++ b/test_inventory_report.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,1377 +440,4727 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>pallet_id</t>
+          <t>Pallet ID</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>location</t>
+          <t>Current Location</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>Created Date</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>receipt_number</t>
+          <t>Receipt Number</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>creation_date</t>
+          <t>Description</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>PLT001</t>
+          <t>PLT-NORM-114</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>RECEIVING</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Electronics - TV 55 inch</t>
-        </is>
+          <t>02-1-011B</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>45876.59209212921</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>REC001</t>
+          <t>RCT-NORM-023</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-08-13 06:00:00</t>
+          <t>Packaging Materials Item 114</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>PLT002</t>
+          <t>PLT-NORM-032</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>RECEIVING</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Electronics - TV 55 inch</t>
-        </is>
+          <t>01-1-007B</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>45876.63375879588</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>REC001</t>
+          <t>RCT-NORM-007</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-08-13 06:00:00</t>
+          <t>Industrial Supplies Item 32</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>PLT003</t>
+          <t>PLT-NORM-012</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>01-01-001A</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Electronics - TV 55 inch</t>
-        </is>
+          <t>01-1-019A</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>45876.71709212921</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>REC001</t>
+          <t>RCT-NORM-003</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-08-13 06:15:00</t>
+          <t>Electronics Components Item 12</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>PLT004</t>
+          <t>PLT-NORM-110</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>01-01-001B</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Electronics - TV 55 inch</t>
-        </is>
+          <t>02-1-003B</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>45876.84209212921</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>REC001</t>
+          <t>RCT-NORM-023</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-08-13 06:15:00</t>
+          <t>Household Items Item 110</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>PLT005</t>
+          <t>PLT-NORM-055</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>01-01-001C</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Electronics - TV 55 inch</t>
-        </is>
+          <t>02-1-016B</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>45876.84209212921</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>REC001</t>
+          <t>RCT-NORM-012</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-08-13 06:15:00</t>
+          <t>Office Equipment Item 55</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>PLT006</t>
+          <t>PLT-NORM-007</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>01-01-002A</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Electronics - TV 55 inch</t>
-        </is>
+          <t>01-1-011A</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>45876.88375879588</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>REC001</t>
+          <t>RCT-NORM-002</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-08-13 06:15:00</t>
+          <t>Paper Products Item 7</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>PLT007</t>
+          <t>PLT-NORM-019</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>01-01-002B</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Electronics - TV 55 inch</t>
-        </is>
+          <t>01-1-022C</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>45877.05042546255</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>REC001</t>
+          <t>RCT-NORM-004</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-08-13 06:15:00</t>
+          <t>Sports Equipment Item 19</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>PLT008</t>
+          <t>PLT-NORM-047</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>01-01-002C</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Electronics - TV 55 inch</t>
-        </is>
+          <t>02-1-006B</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>45877.09209212921</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>REC001</t>
+          <t>RCT-NORM-010</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-08-13 06:15:00</t>
+          <t>Paper Products Item 47</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>PLT009</t>
+          <t>PLT-NORM-066</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>01-01-003A</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Electronics - TV 55 inch</t>
-        </is>
+          <t>01-1-004B</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>45877.25875879588</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>REC001</t>
+          <t>RCT-NORM-014</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-08-13 06:15:00</t>
+          <t>Textiles Item 66</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>PLT010</t>
+          <t>PLT-NORM-008</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>01-01-003B</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Electronics - TV 55 inch</t>
-        </is>
+          <t>01-1-018B</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>45877.25875879588</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>REC001</t>
+          <t>RCT-NORM-002</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-08-13 06:15:00</t>
+          <t>Industrial Supplies Item 8</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>PLT011</t>
+          <t>PLT-NORM-079</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>STAGING-A</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Clothing - Winter Jackets</t>
-        </is>
+          <t>01-1-016B</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>45877.30042546255</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>REC002</t>
+          <t>RCT-NORM-016</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-08-13 10:00:00</t>
+          <t>Garden Supplies Item 79</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>PLT012</t>
+          <t>PLT-NORM-020</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>STAGING-A</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Clothing - Winter Jackets</t>
-        </is>
+          <t>02-1-021B</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>45877.34209212921</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>REC002</t>
+          <t>RCT-NORM-005</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-08-13 10:00:00</t>
+          <t>Cleaning Products Item 20</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>PLT013</t>
+          <t>PLT-NORM-119</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>STAGING-A</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Clothing - Winter Jackets</t>
-        </is>
+          <t>01-1-004C</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>45877.38375879588</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>REC002</t>
+          <t>RCT-NORM-024</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-08-13 10:00:00</t>
+          <t>Sports Equipment Item 119</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>PLT014</t>
+          <t>PLT-NORM-036</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>02-03-015A</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Clothing - Winter Jackets</t>
-        </is>
+          <t>02-1-021A</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>45877.80042546255</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>REC002</t>
+          <t>RCT-NORM-008</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-08-13 12:00:00</t>
+          <t>Chemical Supplies Item 36</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>PLT015</t>
+          <t>PLT-NORM-016</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>02-03-015B</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Clothing - Winter Jackets</t>
-        </is>
+          <t>01-1-014C</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>45877.80042546255</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>REC002</t>
+          <t>RCT-NORM-004</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-08-13 12:00:00</t>
+          <t>Medical Supplies Item 16</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>PLT016</t>
+          <t>PLT-NORM-094</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>02-03-015C</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Clothing - Winter Jackets</t>
-        </is>
+          <t>01-1-001C</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>45877.84209212921</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>REC002</t>
+          <t>RCT-NORM-019</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-08-13 12:00:00</t>
+          <t>Household Items Item 94</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>PLT017</t>
+          <t>PLT-NORM-103</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>02-03-016A</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Clothing - Winter Jackets</t>
-        </is>
+          <t>02-1-017C</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>45877.96709212921</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>REC002</t>
+          <t>RCT-NORM-021</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-08-13 12:00:00</t>
+          <t>Garden Supplies Item 103</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>PLT018</t>
+          <t>PLT-NORM-105</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>02-03-016B</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Clothing - Winter Jackets</t>
-        </is>
+          <t>01-1-008B</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>45877.96709212921</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>REC002</t>
+          <t>RCT-NORM-022</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-08-13 12:00:00</t>
+          <t>Automotive Parts Item 105</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>PLT019</t>
+          <t>PLT-NORM-115</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>02-03-016C</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Clothing - Winter Jackets</t>
-        </is>
+          <t>02-1-014A</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>45878.00875879588</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>REC002</t>
+          <t>RCT-NORM-024</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-08-13 12:00:00</t>
+          <t>Hardware Item 115</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>PLT020</t>
+          <t>PLT-NORM-021</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>02-03-017A</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Clothing - Winter Jackets</t>
-        </is>
+          <t>02-1-025B</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>45878.13375879588</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>REC002</t>
+          <t>RCT-NORM-005</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-08-13 12:00:00</t>
+          <t>Electronics Components Item 21</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>PLT021</t>
+          <t>PLT-NORM-074</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>DOCK-01</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Home Goods - Kitchen Appliances</t>
-        </is>
+          <t>02-1-007B</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>45878.13375879588</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>REC003</t>
+          <t>RCT-NORM-015</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-08-13 08:00:00</t>
+          <t>Garden Supplies Item 74</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>PLT022</t>
+          <t>PLT-NORM-078</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>DOCK-01</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Home Goods - Kitchen Appliances</t>
-        </is>
+          <t>02-1-015B</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>45878.17542546255</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>REC003</t>
+          <t>RCT-NORM-016</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-08-13 08:00:00</t>
+          <t>Textiles Item 78</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>PLT023</t>
+          <t>PLT-NORM-052</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>DOCK-01</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Home Goods - Kitchen Appliances</t>
-        </is>
+          <t>02-1-017A</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>45878.21709212921</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>REC003</t>
+          <t>RCT-NORM-011</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-08-13 08:00:00</t>
+          <t>Medical Supplies Item 52</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>PLT024</t>
+          <t>PLT-NORM-075</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>DOCK-01</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Home Goods - Kitchen Appliances</t>
-        </is>
+          <t>02-1-009C</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>45878.25875879588</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>REC003</t>
+          <t>RCT-NORM-016</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-08-13 08:00:00</t>
+          <t>Garden Supplies Item 75</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>PLT025</t>
+          <t>PLT-NORM-120</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>03-05-025A</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Sports Equipment - Bicycles</t>
-        </is>
+          <t>01-1-021A</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>45878.25875879588</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>REC004</t>
+          <t>RCT-NORM-025</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-08-13 07:30:00</t>
+          <t>Household Items Item 120</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>PLT026</t>
+          <t>PLT-NORM-009</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>03-05-025B</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Sports Equipment - Bicycles</t>
-        </is>
+          <t>01-1-005C</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>45878.34209212921</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>REC004</t>
+          <t>RCT-NORM-002</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-08-13 07:30:00</t>
+          <t>Office Equipment Item 9</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>PLT027</t>
+          <t>PLT-NORM-097</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>03-05-025C</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Sports Equipment - Bicycles</t>
-        </is>
+          <t>02-1-009A</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>45878.46709212921</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>REC004</t>
+          <t>RCT-NORM-020</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-08-13 07:30:00</t>
+          <t>Chemical Supplies Item 97</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>PLT028</t>
+          <t>PLT-NORM-054</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>03-05-026A</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Sports Equipment - Bicycles</t>
-        </is>
+          <t>02-1-021C</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="n">
+        <v>45878.67542546255</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>REC004</t>
+          <t>RCT-NORM-011</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-08-13 07:30:00</t>
+          <t>Paper Products Item 54</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>PLT029</t>
+          <t>PLT-NORM-092</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>STAGING-B</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Books - Educational</t>
-        </is>
+          <t>01-1-003A</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="n">
+        <v>45878.71709212921</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>REC005</t>
+          <t>RCT-NORM-019</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-08-13 09:30:00</t>
+          <t>Office Equipment Item 92</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>PLT030</t>
+          <t>PLT-NORM-087</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>STAGING-B</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Books - Educational</t>
-        </is>
+          <t>02-1-023C</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="n">
+        <v>45878.80042546255</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>REC005</t>
+          <t>RCT-NORM-018</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-08-13 09:30:00</t>
+          <t>Food Products Item 87</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>PLT031</t>
+          <t>PLT-NORM-067</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>STAGING-B</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Books - Educational</t>
-        </is>
+          <t>01-1-009C</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>45879.00875879588</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>REC005</t>
+          <t>RCT-NORM-014</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-08-13 09:30:00</t>
+          <t>Textiles Item 67</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>PLT032</t>
+          <t>PLT-NORM-123</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>STAGING-B</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Books - Educational</t>
-        </is>
+          <t>02-1-018B</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="n">
+        <v>45879.05042546255</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>REC005</t>
+          <t>RCT-NORM-025</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-08-13 09:30:00</t>
+          <t>Office Equipment Item 123</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>PLT033</t>
+          <t>PLT-NORM-050</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>STAGING-B</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Books - Educational</t>
-        </is>
+          <t>02-1-010C</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="n">
+        <v>45879.09209212921</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>REC005</t>
+          <t>RCT-NORM-011</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-08-13 09:30:00</t>
+          <t>Electronics Components Item 50</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>PLT034</t>
+          <t>PLT-NORM-027</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>04-02-010A</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Books - Educational</t>
-        </is>
+          <t>02-1-013C</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="n">
+        <v>45879.09209212921</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>REC005</t>
+          <t>RCT-NORM-006</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-08-13 11:00:00</t>
+          <t>Construction Materials Item 27</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>PLT035</t>
+          <t>PLT-NORM-064</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>04-02-010B</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Books - Educational</t>
-        </is>
+          <t>02-1-010A</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="n">
+        <v>45879.09209212921</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>REC005</t>
+          <t>RCT-NORM-013</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-08-13 11:00:00</t>
+          <t>Automotive Parts Item 64</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>PLT036</t>
+          <t>PLT-NORM-037</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>04-02-010C</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Books - Educational</t>
-        </is>
+          <t>01-1-010A</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="n">
+        <v>45879.34209212921</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>REC005</t>
+          <t>RCT-NORM-008</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-08-13 11:00:00</t>
+          <t>Medical Supplies Item 37</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>PLT037</t>
+          <t>PLT-NORM-129</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>INVALIDLOC</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Automotive Parts - Batteries</t>
-        </is>
+          <t>02-1-016C</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="n">
+        <v>45879.34209212921</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>REC006</t>
+          <t>RCT-NORM-026</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-08-13 05:00:00</t>
+          <t>Cleaning Products Item 129</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>PLT038</t>
+          <t>PLT-NORM-080</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>RECEIVING</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Automotive Parts - Batteries</t>
-        </is>
+          <t>01-1-007C</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="n">
+        <v>45879.46709212921</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>REC006</t>
+          <t>RCT-NORM-017</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-08-13 05:00:00</t>
+          <t>Electronics Components Item 80</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>PLT039</t>
+          <t>PLT-NORM-111</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>05-01-001A</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Automotive Parts - Batteries</t>
-        </is>
+          <t>02-1-019C</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="n">
+        <v>45879.55042546255</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>REC006</t>
+          <t>RCT-NORM-023</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025-08-13 14:00:00</t>
+          <t>Office Equipment Item 111</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>PLT040</t>
+          <t>PLT-NORM-022</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>05-01-001B</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Automotive Parts - Batteries</t>
-        </is>
+          <t>02-1-018C</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="n">
+        <v>45879.63375879588</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>REC006</t>
+          <t>RCT-NORM-005</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-08-13 14:00:00</t>
+          <t>Automotive Parts Item 22</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>PLT041</t>
+          <t>PLT-NORM-015</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>PLT041</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Furniture - Office Chairs</t>
-        </is>
+          <t>02-1-015C</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="n">
+        <v>45879.71709212921</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>REC007</t>
+          <t>RCT-NORM-004</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-08-13 06:30:00</t>
+          <t>Garden Supplies Item 15</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>PLT042</t>
+          <t>PLT-NORM-088</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>PLT042</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Furniture - Office Chairs</t>
-        </is>
+          <t>02-1-024A</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="n">
+        <v>45879.71709212921</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>REC007</t>
+          <t>RCT-NORM-018</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-08-13 06:30:00</t>
+          <t>Electronics Components Item 88</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>PLT043</t>
+          <t>PLT-NORM-098</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>06-04-020A</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Furniture - Office Chairs</t>
-        </is>
+          <t>02-1-019A</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="n">
+        <v>45879.75875879588</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>REC007</t>
+          <t>RCT-NORM-020</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-08-13 13:00:00</t>
+          <t>Office Equipment Item 98</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>PLT044</t>
+          <t>PLT-NORM-043</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>06-04-020B</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Furniture - Office Chairs</t>
-        </is>
+          <t>01-1-019B</t>
+        </is>
+      </c>
+      <c r="C45" s="2" t="n">
+        <v>45879.75875879588</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>REC007</t>
+          <t>RCT-NORM-009</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2025-08-13 13:00:00</t>
+          <t>Food Products Item 43</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>PLT045</t>
+          <t>PLT-NORM-130</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>06-04-020C</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Furniture - Office Chairs</t>
-        </is>
+          <t>01-1-018C</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="n">
+        <v>45879.84209212921</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>REC007</t>
+          <t>RCT-NORM-027</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2025-08-13 13:00:00</t>
+          <t>Office Equipment Item 130</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>PLT046</t>
+          <t>PLT-NORM-069</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>DOCK-02</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Garden Tools - Lawn Mowers</t>
-        </is>
+          <t>02-1-011A</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="n">
+        <v>45879.92542546255</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>REC008</t>
+          <t>RCT-NORM-014</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2025-08-13 11:30:00</t>
+          <t>Chemical Supplies Item 69</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>PLT047</t>
+          <t>PLT-NORM-084</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>DOCK-02</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Garden Tools - Lawn Mowers</t>
-        </is>
+          <t>01-1-006B</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="n">
+        <v>45879.92542546255</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>REC008</t>
+          <t>RCT-NORM-017</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025-08-13 11:30:00</t>
+          <t>Paper Products Item 84</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>PLT048</t>
+          <t>PLT-NORM-038</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>DOCK-02</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Garden Tools - Lawn Mowers</t>
-        </is>
+          <t>02-1-012A</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="n">
+        <v>45879.92542546255</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>REC008</t>
+          <t>RCT-NORM-008</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2025-08-13 11:30:00</t>
+          <t>Chemical Supplies Item 38</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>PLT049</t>
+          <t>PLT-NORM-090</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>DOCK-02</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Garden Tools - Lawn Mowers</t>
-        </is>
+          <t>02-1-019B</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="n">
+        <v>45880.09209212921</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>REC008</t>
+          <t>RCT-NORM-019</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2025-08-13 11:30:00</t>
+          <t>Automotive Parts Item 90</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>PLT050</t>
+          <t>PLT-NORM-127</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>01-08-050A</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Toys - Board Games</t>
-        </is>
+          <t>01-1-023C</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="n">
+        <v>45880.09209212921</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>REC009</t>
+          <t>RCT-NORM-026</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025-08-13 09:00:00</t>
+          <t>Textiles Item 127</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>PLT-NORM-062</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>02-1-002C</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="n">
+        <v>45880.09209212921</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>RCT-NORM-013</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Household Items Item 62</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>PLT-NORM-107</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>01-1-011C</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="n">
+        <v>45880.17542546255</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>RCT-NORM-022</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Medical Supplies Item 107</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>PLT-NORM-034</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>01-1-012A</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="n">
+        <v>45880.34209212921</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>RCT-NORM-007</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Textiles Item 34</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>PLT-NORM-071</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>02-1-022C</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="n">
+        <v>45880.46709212921</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>RCT-NORM-015</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Medical Supplies Item 71</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>PLT-NORM-006</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>01-1-020B</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="n">
+        <v>45880.55042546255</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>RCT-NORM-002</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Office Equipment Item 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>PLT-NORM-018</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>02-1-002B</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="n">
+        <v>45880.55042546255</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>RCT-NORM-004</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Food Products Item 18</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>PLT-NORM-049</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>01-1-020C</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="n">
+        <v>45880.59209212921</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>RCT-NORM-010</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Household Items Item 49</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>PLT-NORM-085</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>02-1-025C</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="n">
+        <v>45880.67542546255</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>RCT-NORM-018</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Medical Supplies Item 85</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>PLT-NORM-099</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>01-1-002B</t>
+        </is>
+      </c>
+      <c r="C60" s="2" t="n">
+        <v>45880.80042546255</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>RCT-NORM-020</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Household Items Item 99</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>PLT-NORM-031</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>01-1-003B</t>
+        </is>
+      </c>
+      <c r="C61" s="2" t="n">
+        <v>45880.96709212921</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>RCT-NORM-007</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Paper Products Item 31</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>PLT-NORM-081</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>02-1-007C</t>
+        </is>
+      </c>
+      <c r="C62" s="2" t="n">
+        <v>45881.00875879588</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>RCT-NORM-017</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Household Items Item 81</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>PLT-NORM-061</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>01-1-021B</t>
+        </is>
+      </c>
+      <c r="C63" s="2" t="n">
+        <v>45881.09209212921</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>RCT-NORM-013</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Sports Equipment Item 61</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>PLT-NORM-028</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>02-1-008A</t>
+        </is>
+      </c>
+      <c r="C64" s="2" t="n">
+        <v>45881.13375879588</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>RCT-NORM-006</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Textiles Item 28</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>PLT-NORM-086</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>02-1-012C</t>
+        </is>
+      </c>
+      <c r="C65" s="2" t="n">
+        <v>45881.17542546255</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>RCT-NORM-018</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Household Items Item 86</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>PLT-NORM-126</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>02-1-012B</t>
+        </is>
+      </c>
+      <c r="C66" s="2" t="n">
+        <v>45881.17542546255</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>RCT-NORM-026</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Automotive Parts Item 126</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>PLT-NORM-076</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>01-1-025A</t>
+        </is>
+      </c>
+      <c r="C67" s="2" t="n">
+        <v>45881.21709212921</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>RCT-NORM-016</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Medical Supplies Item 76</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>PLT-NORM-053</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>01-1-010C</t>
+        </is>
+      </c>
+      <c r="C68" s="2" t="n">
+        <v>45881.25875879588</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>RCT-NORM-011</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Automotive Parts Item 53</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>PLT-NORM-096</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>02-1-016A</t>
+        </is>
+      </c>
+      <c r="C69" s="2" t="n">
+        <v>45881.30042546255</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>RCT-NORM-020</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Food Products Item 96</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>PLT-NORM-095</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>02-1-024B</t>
+        </is>
+      </c>
+      <c r="C70" s="2" t="n">
+        <v>45881.30042546255</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>RCT-NORM-020</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Automotive Parts Item 95</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>PLT-NORM-065</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>02-1-001B</t>
+        </is>
+      </c>
+      <c r="C71" s="2" t="n">
+        <v>45881.34209212921</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>RCT-NORM-014</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Office Equipment Item 65</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>PLT-NORM-102</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>02-1-005B</t>
+        </is>
+      </c>
+      <c r="C72" s="2" t="n">
+        <v>45881.42542546255</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>RCT-NORM-021</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Industrial Supplies Item 102</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>PLT-NORM-026</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>02-1-024C</t>
+        </is>
+      </c>
+      <c r="C73" s="2" t="n">
+        <v>45881.42542546255</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>RCT-NORM-006</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Sports Equipment Item 26</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>PLT-NORM-035</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>01-1-015C</t>
+        </is>
+      </c>
+      <c r="C74" s="2" t="n">
+        <v>45881.55042546255</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>RCT-NORM-008</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Construction Materials Item 35</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>PLT-NORM-106</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>01-1-014A</t>
+        </is>
+      </c>
+      <c r="C75" s="2" t="n">
+        <v>45881.75875879588</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>RCT-NORM-022</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Construction Materials Item 106</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>PLT-NORM-011</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>02-1-004C</t>
+        </is>
+      </c>
+      <c r="C76" s="2" t="n">
+        <v>45882.05042546255</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>RCT-NORM-003</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Food Products Item 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>PLT-NORM-082</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>02-1-003A</t>
+        </is>
+      </c>
+      <c r="C77" s="2" t="n">
+        <v>45882.17542546255</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>RCT-NORM-017</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Textiles Item 82</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>PLT-NORM-014</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>01-1-013B</t>
+        </is>
+      </c>
+      <c r="C78" s="2" t="n">
+        <v>45882.21709212921</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>RCT-NORM-003</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Automotive Parts Item 14</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>PLT-NORM-046</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>02-1-002A</t>
+        </is>
+      </c>
+      <c r="C79" s="2" t="n">
+        <v>45882.21709212921</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>RCT-NORM-010</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Household Items Item 46</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>PLT-NORM-118</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>02-1-007A</t>
+        </is>
+      </c>
+      <c r="C80" s="2" t="n">
+        <v>45882.25875879588</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>RCT-NORM-024</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Textiles Item 118</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>PLT-NORM-116</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>01-1-011B</t>
+        </is>
+      </c>
+      <c r="C81" s="2" t="n">
+        <v>45882.25875879588</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>RCT-NORM-024</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Automotive Parts Item 116</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>PLT-NORM-005</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>02-1-004B</t>
+        </is>
+      </c>
+      <c r="C82" s="2" t="n">
+        <v>45882.30042546255</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>RCT-NORM-002</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Food Products Item 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>PLT-NORM-044</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>02-1-014B</t>
+        </is>
+      </c>
+      <c r="C83" s="2" t="n">
+        <v>45882.50875879588</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>RCT-NORM-009</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Cleaning Products Item 44</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>PLT-NORM-083</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>01-1-001B</t>
+        </is>
+      </c>
+      <c r="C84" s="2" t="n">
+        <v>45882.80042546255</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>RCT-NORM-017</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Textiles Item 83</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>PLT-NORM-017</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>02-1-004A</t>
+        </is>
+      </c>
+      <c r="C85" s="2" t="n">
+        <v>45882.84209212921</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>RCT-NORM-004</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Chemical Supplies Item 17</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>PLT-NORM-125</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>01-1-004A</t>
+        </is>
+      </c>
+      <c r="C86" s="2" t="n">
+        <v>45882.88375879588</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>RCT-NORM-026</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Automotive Parts Item 125</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>PLT-NORM-045</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>01-1-016C</t>
+        </is>
+      </c>
+      <c r="C87" s="2" t="n">
+        <v>45882.92542546255</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>RCT-NORM-010</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Hardware Item 45</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>PLT-NORM-030</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>01-1-024B</t>
+        </is>
+      </c>
+      <c r="C88" s="2" t="n">
+        <v>45883.05042546255</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>RCT-NORM-007</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Packaging Materials Item 30</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>PLT-NORM-004</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>01-1-015B</t>
+        </is>
+      </c>
+      <c r="C89" s="2" t="n">
+        <v>45883.09209212921</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>RCT-NORM-001</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Sports Equipment Item 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>PLT-NORM-068</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>02-1-023B</t>
+        </is>
+      </c>
+      <c r="C90" s="2" t="n">
+        <v>45883.17542546255</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>RCT-NORM-014</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Chemical Supplies Item 68</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>PLT-NORM-051</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>01-1-009B</t>
+        </is>
+      </c>
+      <c r="C91" s="2" t="n">
+        <v>45883.17542546255</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>RCT-NORM-011</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Office Equipment Item 51</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>PLT-NORM-093</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>01-1-005B</t>
+        </is>
+      </c>
+      <c r="C92" s="2" t="n">
+        <v>45883.17542546255</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>RCT-NORM-019</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Packaging Materials Item 93</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>PLT-NORM-002</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>02-1-020C</t>
+        </is>
+      </c>
+      <c r="C93" s="2" t="n">
+        <v>45883.25875879588</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>RCT-NORM-001</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Chemical Supplies Item 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>PLT-NORM-059</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>01-1-002C</t>
+        </is>
+      </c>
+      <c r="C94" s="2" t="n">
+        <v>45883.34209212921</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>RCT-NORM-012</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Medical Supplies Item 59</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>PLT-NORM-089</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>01-1-012C</t>
+        </is>
+      </c>
+      <c r="C95" s="2" t="n">
+        <v>45883.34209212921</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>RCT-NORM-018</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Construction Materials Item 89</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>PLT-NORM-001</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>02-1-023A</t>
+        </is>
+      </c>
+      <c r="C96" s="2" t="n">
+        <v>45883.38375879588</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>RCT-NORM-001</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Paper Products Item 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>PLT-NORM-029</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>02-1-020B</t>
+        </is>
+      </c>
+      <c r="C97" s="2" t="n">
+        <v>45883.38375879588</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>RCT-NORM-006</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Hardware Item 29</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>PLT-NORM-024</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>01-1-024C</t>
+        </is>
+      </c>
+      <c r="C98" s="2" t="n">
+        <v>45883.50875879588</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>RCT-NORM-005</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Medical Supplies Item 24</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>PLT-NORM-122</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>01-1-025C</t>
+        </is>
+      </c>
+      <c r="C99" s="2" t="n">
+        <v>45883.50875879588</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>RCT-NORM-025</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Chemical Supplies Item 122</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>PLT-NORM-101</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>02-1-010B</t>
+        </is>
+      </c>
+      <c r="C100" s="2" t="n">
+        <v>45883.59209212921</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>RCT-NORM-021</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Sports Equipment Item 101</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>PLT-NORM-091</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>01-1-013A</t>
+        </is>
+      </c>
+      <c r="C101" s="2" t="n">
+        <v>45883.67542546255</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>RCT-NORM-019</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Household Items Item 91</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>PLT-NORM-048</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>02-1-015A</t>
+        </is>
+      </c>
+      <c r="C102" s="2" t="n">
+        <v>45884.00875879588</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>RCT-NORM-010</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Hardware Item 48</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>PLT-NORM-003</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>01-1-024A</t>
+        </is>
+      </c>
+      <c r="C103" s="2" t="n">
+        <v>45884.05042546255</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>RCT-NORM-001</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Food Products Item 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>PLT-NORM-072</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>02-1-008C</t>
+        </is>
+      </c>
+      <c r="C104" s="2" t="n">
+        <v>45884.09209212921</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>RCT-NORM-015</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Packaging Materials Item 72</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>PLT-NORM-124</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>02-1-001C</t>
+        </is>
+      </c>
+      <c r="C105" s="2" t="n">
+        <v>45884.09209212921</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>RCT-NORM-025</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Office Equipment Item 124</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>PLT-NORM-100</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>02-1-011C</t>
+        </is>
+      </c>
+      <c r="C106" s="2" t="n">
+        <v>45884.42542546255</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>RCT-NORM-021</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Hardware Item 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>PLT-NORM-056</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>02-1-018A</t>
+        </is>
+      </c>
+      <c r="C107" s="2" t="n">
+        <v>45884.42542546255</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>RCT-NORM-012</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Industrial Supplies Item 56</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>PLT-NORM-023</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>02-1-014C</t>
+        </is>
+      </c>
+      <c r="C108" s="2" t="n">
+        <v>45884.42542546255</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>RCT-NORM-005</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Industrial Supplies Item 23</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>PLT-NORM-058</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>01-1-008C</t>
+        </is>
+      </c>
+      <c r="C109" s="2" t="n">
+        <v>45884.42542546255</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>RCT-NORM-012</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Sports Equipment Item 58</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>PLT-NORM-073</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>01-1-018A</t>
+        </is>
+      </c>
+      <c r="C110" s="2" t="n">
+        <v>45884.46709212921</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>RCT-NORM-015</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Paper Products Item 73</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>PLT-NORM-070</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>01-1-005A</t>
+        </is>
+      </c>
+      <c r="C111" s="2" t="n">
+        <v>45884.55042546255</v>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>RCT-NORM-015</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Paper Products Item 70</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>PLT-NORM-033</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>02-1-008B</t>
+        </is>
+      </c>
+      <c r="C112" s="2" t="n">
+        <v>45884.55042546255</v>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>RCT-NORM-007</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Cleaning Products Item 33</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>PLT-NORM-042</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>02-1-020A</t>
+        </is>
+      </c>
+      <c r="C113" s="2" t="n">
+        <v>45884.55042546255</v>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>RCT-NORM-009</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Office Equipment Item 42</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>PLT-NORM-057</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>02-1-009B</t>
+        </is>
+      </c>
+      <c r="C114" s="2" t="n">
+        <v>45884.63375879588</v>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>RCT-NORM-012</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Medical Supplies Item 57</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>PLT-NORM-010</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>01-1-002A</t>
+        </is>
+      </c>
+      <c r="C115" s="2" t="n">
+        <v>45884.67542546255</v>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>RCT-NORM-003</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Automotive Parts Item 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>PLT-NORM-039</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>02-1-022A</t>
+        </is>
+      </c>
+      <c r="C116" s="2" t="n">
+        <v>45884.80042546255</v>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>RCT-NORM-008</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Food Products Item 39</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>PLT-NORM-117</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>01-1-007A</t>
+        </is>
+      </c>
+      <c r="C117" s="2" t="n">
+        <v>45884.88375879588</v>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>RCT-NORM-024</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Chemical Supplies Item 117</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>PLT-NORM-040</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>01-1-017C</t>
+        </is>
+      </c>
+      <c r="C118" s="2" t="n">
+        <v>45884.88375879588</v>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>RCT-NORM-009</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Construction Materials Item 40</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>PLT-NORM-112</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>01-1-017A</t>
+        </is>
+      </c>
+      <c r="C119" s="2" t="n">
+        <v>45885.00875879588</v>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>RCT-NORM-023</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Office Equipment Item 112</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>PLT-NORM-013</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>01-1-022A</t>
+        </is>
+      </c>
+      <c r="C120" s="2" t="n">
+        <v>45885.13375879588</v>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>RCT-NORM-003</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Sports Equipment Item 13</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>PLT-NORM-041</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>02-1-022B</t>
+        </is>
+      </c>
+      <c r="C121" s="2" t="n">
+        <v>45885.25875879588</v>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>RCT-NORM-009</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Industrial Supplies Item 41</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>PLT-NORM-121</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>01-1-014B</t>
+        </is>
+      </c>
+      <c r="C122" s="2" t="n">
+        <v>45885.30042546255</v>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>RCT-NORM-025</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Packaging Materials Item 121</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>PLT-NORM-060</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>01-1-025B</t>
+        </is>
+      </c>
+      <c r="C123" s="2" t="n">
+        <v>45885.34209212921</v>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>RCT-NORM-013</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Chemical Supplies Item 60</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>PLT-NORM-077</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>02-1-003C</t>
+        </is>
+      </c>
+      <c r="C124" s="2" t="n">
+        <v>45885.38375879588</v>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>RCT-NORM-016</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Electronics Components Item 77</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>PLT-NORM-113</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>01-1-021C</t>
+        </is>
+      </c>
+      <c r="C125" s="2" t="n">
+        <v>45885.63375879588</v>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>RCT-NORM-023</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Textiles Item 113</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>PLT-NORM-063</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>02-1-013A</t>
+        </is>
+      </c>
+      <c r="C126" s="2" t="n">
+        <v>45885.67542546255</v>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>RCT-NORM-013</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Office Equipment Item 63</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>PLT-STAGNANT-004</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>RECV-02</t>
+        </is>
+      </c>
+      <c r="C127" s="2" t="n">
+        <v>45885.71709212921</v>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>RCT-STAGNANT-004</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Stagnant Product 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>PLT-NORM-025</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>01-1-001A</t>
+        </is>
+      </c>
+      <c r="C128" s="2" t="n">
+        <v>45885.71709212921</v>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>RCT-NORM-006</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Chemical Supplies Item 25</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>PLT-STAGNANT-003</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>RECV-02</t>
+        </is>
+      </c>
+      <c r="C129" s="2" t="n">
+        <v>45885.80042546255</v>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>RCT-STAGNANT-003</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Stagnant Product 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>PLT-NORM-109</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>02-1-025A</t>
+        </is>
+      </c>
+      <c r="C130" s="2" t="n">
+        <v>45885.84209212921</v>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>RCT-NORM-022</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Sports Equipment Item 109</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>PLT-STAGNANT-002</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>RECV-01</t>
+        </is>
+      </c>
+      <c r="C131" s="2" t="n">
+        <v>45885.92542546255</v>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>RCT-STAGNANT-002</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Stagnant Product 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>PLT-STAGNANT-005</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>RECV-01</t>
+        </is>
+      </c>
+      <c r="C132" s="2" t="n">
+        <v>45885.96709212921</v>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>RCT-STAGNANT-005</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Stagnant Product 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>PLT-STAGNANT-001</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>RECV-01</t>
+        </is>
+      </c>
+      <c r="C133" s="2" t="n">
+        <v>45886.05042546255</v>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>RCT-STAGNANT-001</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Stagnant Product 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>PLT-AISLE-STUCK-04</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>AISLE-02</t>
+        </is>
+      </c>
+      <c r="C134" s="2" t="n">
+        <v>45886.17542546255</v>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>RCT-AISLE-STUCK-04</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Aisle Stuck Product 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>PLT-NORM-128</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>01-1-009A</t>
+        </is>
+      </c>
+      <c r="C135" s="2" t="n">
+        <v>45886.17542546255</v>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>RCT-NORM-026</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Hardware Item 128</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>PLT-LOT-001-06</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>02-01-024C</t>
+        </is>
+      </c>
+      <c r="C136" s="2" t="n">
+        <v>45886.21709212921</v>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>LOT-SPECIAL-001</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Coordinated Lot Product 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>PLT-LOT-001-08</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>01-01-023B</t>
+        </is>
+      </c>
+      <c r="C137" s="2" t="n">
+        <v>45886.21709212921</v>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>LOT-SPECIAL-001</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Coordinated Lot Product 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>PLT-LOT-001-04</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>02-01-024A</t>
+        </is>
+      </c>
+      <c r="C138" s="2" t="n">
+        <v>45886.21709212921</v>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>LOT-SPECIAL-001</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Coordinated Lot Product 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>PLT-LOT-001-03</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>01-01-024C</t>
+        </is>
+      </c>
+      <c r="C139" s="2" t="n">
+        <v>45886.21709212921</v>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>LOT-SPECIAL-001</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Coordinated Lot Product 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>PLT-LOT-001-02</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>01-01-024B</t>
+        </is>
+      </c>
+      <c r="C140" s="2" t="n">
+        <v>45886.21709212921</v>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>LOT-SPECIAL-001</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Coordinated Lot Product 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>PLT-LOT-001-01</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>01-01-024A</t>
+        </is>
+      </c>
+      <c r="C141" s="2" t="n">
+        <v>45886.21709212921</v>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>LOT-SPECIAL-001</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Coordinated Lot Product 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>PLT-LOT-001-09</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>01-01-023C</t>
+        </is>
+      </c>
+      <c r="C142" s="2" t="n">
+        <v>45886.21709212921</v>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>LOT-SPECIAL-001</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Coordinated Lot Product 9</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>PLT-LOT-001-STRAGGLER</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>RECV-01</t>
+        </is>
+      </c>
+      <c r="C143" s="2" t="n">
+        <v>45886.21709212921</v>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>LOT-SPECIAL-001</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Coordinated Lot Product STRAGGLER</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>PLT-AISLE-STUCK-02</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>AISLE-01</t>
+        </is>
+      </c>
+      <c r="C144" s="2" t="n">
+        <v>45886.21709212921</v>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>RCT-AISLE-STUCK-02</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Aisle Stuck Product 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>PLT-LOT-001-07</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>01-01-023A</t>
+        </is>
+      </c>
+      <c r="C145" s="2" t="n">
+        <v>45886.21709212921</v>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>LOT-SPECIAL-001</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Coordinated Lot Product 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>PLT-LOT-001-05</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>02-01-024B</t>
+        </is>
+      </c>
+      <c r="C146" s="2" t="n">
+        <v>45886.21709212921</v>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>LOT-SPECIAL-001</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Coordinated Lot Product 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>PLT-SPEC-142</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>AISLE-01</t>
+        </is>
+      </c>
+      <c r="C147" s="2" t="n">
+        <v>45886.21709212921</v>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>RCT-SPEC-032</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>In transit Product 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>PLT-NORM-108</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>02-1-017B</t>
+        </is>
+      </c>
+      <c r="C148" s="2" t="n">
+        <v>45886.21709212921</v>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>RCT-NORM-022</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Household Items Item 108</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>PLT-SPEC-143</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>AISLE-02</t>
+        </is>
+      </c>
+      <c r="C149" s="2" t="n">
+        <v>45886.25875879588</v>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>RCT-SPEC-032</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>In transit Product 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>PLT-AISLE-STUCK-03</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>AISLE-02</t>
+        </is>
+      </c>
+      <c r="C150" s="2" t="n">
+        <v>45886.25875879588</v>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>RCT-AISLE-STUCK-03</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Aisle Stuck Product 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>PLT-SPEC-134</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>RECV-02</t>
+        </is>
+      </c>
+      <c r="C151" s="2" t="n">
+        <v>45886.25875879588</v>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>RCT-SPEC-028</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Recent arrivals Product 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>PLT-SPEC-133</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>RECV-01</t>
+        </is>
+      </c>
+      <c r="C152" s="2" t="n">
+        <v>45886.25875879588</v>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>RCT-SPEC-028</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Recent arrivals Product 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>PLT-MAPPING-ERROR-02</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>STAGE-01</t>
+        </is>
+      </c>
+      <c r="C153" s="2" t="n">
+        <v>45886.29695324032</v>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>RCT-MAPPING-ERROR-02</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Location Mapping Error 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>PLT-MAPPING-ERROR-01</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>RECV-02</t>
+        </is>
+      </c>
+      <c r="C154" s="2" t="n">
+        <v>45886.30042546255</v>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>RCT-MAPPING-ERROR-01</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Location Mapping Error 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>PLT-SPEC-141</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>AISLE-01</t>
+        </is>
+      </c>
+      <c r="C155" s="2" t="n">
+        <v>45886.30042546255</v>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>RCT-SPEC-031</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>In transit Product 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>PLT-AISLE-STUCK-01</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>AISLE-01</t>
+        </is>
+      </c>
+      <c r="C156" s="2" t="n">
+        <v>45886.30042546255</v>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>RCT-AISLE-STUCK-01</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Aisle Stuck Product 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>PLT-SPEC-145</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>AISLE-02</t>
+        </is>
+      </c>
+      <c r="C157" s="2" t="n">
+        <v>45886.30042546255</v>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>RCT-SPEC-033</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>In transit Product 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>DUP-002</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>02-01-019A</t>
+        </is>
+      </c>
+      <c r="C158" s="2" t="n">
+        <v>45886.33167546255</v>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>RCT-DUP-002-COPY</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Duplicate Pallet Test 2 Copy</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>DUP-002</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>01-01-019A</t>
+        </is>
+      </c>
+      <c r="C159" s="2" t="n">
+        <v>45886.33514768477</v>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>RCT-DUP-002</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Duplicate Pallet Test 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>DUP-001</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>02-01-020A</t>
+        </is>
+      </c>
+      <c r="C160" s="2" t="n">
+        <v>45886.33861990699</v>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>RCT-DUP-001-COPY</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Duplicate Pallet Test 1 Copy</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>DUP-001</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>01-01-020A</t>
+        </is>
+      </c>
+      <c r="C161" s="2" t="n">
+        <v>45886.34209212921</v>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>RCT-DUP-001</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Duplicate Pallet Test 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>PLT-SPEC-144</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>AISLE-02</t>
+        </is>
+      </c>
+      <c r="C162" s="2" t="n">
+        <v>45886.34209212921</v>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>RCT-SPEC-033</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>In transit Product 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>PLT-SPEC-136</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>STAGE-01</t>
+        </is>
+      </c>
+      <c r="C163" s="2" t="n">
+        <v>45886.34209212921</v>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>RCT-SPEC-029</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Outbound staging Product 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>PLT-TEMP-VIOLATION-03</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>01-01-021A</t>
+        </is>
+      </c>
+      <c r="C164" s="2" t="n">
+        <v>45886.37681435143</v>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>RCT-TEMP-VIOLATION-03</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>REFRIGERATED DAIRY</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>PLT-TEMP-VIOLATION-02</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>02-01-022A</t>
+        </is>
+      </c>
+      <c r="C165" s="2" t="n">
+        <v>45886.38028657366</v>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>RCT-TEMP-VIOLATION-02</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>FROZEN MEAT PRODUCTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>PLT-SPEC-138</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>STAGE-01</t>
+        </is>
+      </c>
+      <c r="C166" s="2" t="n">
+        <v>45886.38375879588</v>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>RCT-SPEC-030</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Outbound staging Product 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>PLT-SPEC-131</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>RECV-01</t>
+        </is>
+      </c>
+      <c r="C167" s="2" t="n">
+        <v>45886.38375879588</v>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>RCT-SPEC-027</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Recent arrivals Product 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>PLT-TEMP-VIOLATION-01</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>01-01-022A</t>
+        </is>
+      </c>
+      <c r="C168" s="2" t="n">
+        <v>45886.38375879588</v>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>RCT-TEMP-VIOLATION-01</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>FROZEN VEGETABLES</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>PLT-INVALID-003</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>FAKE-AREA</t>
+        </is>
+      </c>
+      <c r="C169" s="2" t="n">
+        <v>45886.4184810181</v>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>RCT-INVALID-003</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Invalid Location Test 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>PLT-INVALID-002</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>UNKNOWN-99</t>
+        </is>
+      </c>
+      <c r="C170" s="2" t="n">
+        <v>45886.42195324032</v>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>RCT-INVALID-002</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Invalid Location Test 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>PLT-SPEC-135</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>RECV-02</t>
+        </is>
+      </c>
+      <c r="C171" s="2" t="n">
+        <v>45886.42542546255</v>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>RCT-SPEC-029</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Recent arrivals Product 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>PLT-INVALID-001</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>BADLOC-01</t>
+        </is>
+      </c>
+      <c r="C172" s="2" t="n">
+        <v>45886.42542546255</v>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>RCT-INVALID-001</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Invalid Location Test 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>PLT-SPEC-139</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>STAGE-01</t>
+        </is>
+      </c>
+      <c r="C173" s="2" t="n">
+        <v>45886.46709212921</v>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>RCT-SPEC-030</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Outbound staging Product 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>PLT-SPEC-132</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>RECV-01</t>
+        </is>
+      </c>
+      <c r="C174" s="2" t="n">
+        <v>45886.46709212921</v>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>RCT-SPEC-028</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>Recent arrivals Product 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>PLT-OVERCAP-08</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>RECV-01</t>
+        </is>
+      </c>
+      <c r="C175" s="2" t="n">
+        <v>45886.48445324032</v>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>RCT-OVERCAP-008</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>Overcapacity Test 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>PLT-OVERCAP-07</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>RECV-01</t>
+        </is>
+      </c>
+      <c r="C176" s="2" t="n">
+        <v>45886.48792546255</v>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>RCT-OVERCAP-007</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>Overcapacity Test 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>PLT-OVERCAP-06</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>RECV-01</t>
+        </is>
+      </c>
+      <c r="C177" s="2" t="n">
+        <v>45886.49139768477</v>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>RCT-OVERCAP-006</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Overcapacity Test 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>PLT-OVERCAP-05</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>RECV-01</t>
+        </is>
+      </c>
+      <c r="C178" s="2" t="n">
+        <v>45886.49486990699</v>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>RCT-OVERCAP-005</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Overcapacity Test 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>PLT-OVERCAP-STORAGE-04</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>02-01-023A</t>
+        </is>
+      </c>
+      <c r="C179" s="2" t="n">
+        <v>45886.49834212921</v>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>RCT-OVERCAP-STORAGE-04</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>Storage Overcap 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>PLT-OVERCAP-04</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>RECV-01</t>
+        </is>
+      </c>
+      <c r="C180" s="2" t="n">
+        <v>45886.49834212921</v>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>RCT-OVERCAP-004</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Overcapacity Test 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>PLT-OVERCAP-STORAGE-03</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>02-01-023A</t>
+        </is>
+      </c>
+      <c r="C181" s="2" t="n">
+        <v>45886.50181435143</v>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>RCT-OVERCAP-STORAGE-03</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Storage Overcap 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>PLT-OVERCAP-03</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>RECV-01</t>
+        </is>
+      </c>
+      <c r="C182" s="2" t="n">
+        <v>45886.50181435143</v>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>RCT-OVERCAP-003</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>Overcapacity Test 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>PLT-OVERCAP-STORAGE-02</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>02-01-023A</t>
+        </is>
+      </c>
+      <c r="C183" s="2" t="n">
+        <v>45886.50528657366</v>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>RCT-OVERCAP-STORAGE-02</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>Storage Overcap 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>PLT-OVERCAP-02</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>RECV-01</t>
+        </is>
+      </c>
+      <c r="C184" s="2" t="n">
+        <v>45886.50528657366</v>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>RCT-OVERCAP-002</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>Overcapacity Test 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>PLT-NORM-104</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>01-1-016A</t>
+        </is>
+      </c>
+      <c r="C185" s="2" t="n">
+        <v>45886.50875879588</v>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>RCT-NORM-021</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>Automotive Parts Item 104</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>PLT-OVERCAP-STORAGE-01</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>02-01-023A</t>
+        </is>
+      </c>
+      <c r="C186" s="2" t="n">
+        <v>45886.50875879588</v>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>RCT-OVERCAP-STORAGE-01</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>Storage Overcap 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>PLT-SPEC-137</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>STAGE-01</t>
+        </is>
+      </c>
+      <c r="C187" s="2" t="n">
+        <v>45886.50875879588</v>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>RCT-SPEC-030</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>Outbound staging Product 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>PLT-SPEC-140</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>DOCK-01</t>
+        </is>
+      </c>
+      <c r="C188" s="2" t="n">
+        <v>45886.50875879588</v>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>RCT-SPEC-030</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>Loading Product 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>PLT-OVERCAP-01</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>RECV-01</t>
+        </is>
+      </c>
+      <c r="C189" s="2" t="n">
+        <v>45886.50875879588</v>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>RCT-OVERCAP-001</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>Overcapacity Test 1</t>
         </is>
       </c>
     </row>
